--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3457.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3457.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.714833603543277</v>
+        <v>1.173706412315369</v>
       </c>
       <c r="B1">
-        <v>1.864270519208922</v>
+        <v>2.068058013916016</v>
       </c>
       <c r="C1">
-        <v>1.914408748718108</v>
+        <v>5.607265472412109</v>
       </c>
       <c r="D1">
-        <v>2.436863265668775</v>
+        <v>0.7988770604133606</v>
       </c>
       <c r="E1">
-        <v>3.768291306657205</v>
+        <v>0.9644936919212341</v>
       </c>
     </row>
   </sheetData>
